--- a/fixed asset/fixed asset.xlsx
+++ b/fixed asset/fixed asset.xlsx
@@ -5,17 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="211" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="211" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>core test</t>
+  </si>
   <si>
     <t>fixed asset worth changes</t>
   </si>
@@ -23,25 +27,237 @@
     <t>fixed asset net worth decrease</t>
   </si>
   <si>
-    <t>Eg:decrease from depreciation with one policy</t>
+    <t>Eg:decrease from depreciation without policy </t>
+  </si>
+  <si>
+    <t>Eg:decrease from depreciation with policy of depreciation type</t>
+  </si>
+  <si>
+    <r>
+      <t>遇到类库引入后无法使用的诡异问题，对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Intellij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>不熟</t>
+    </r>
   </si>
   <si>
     <t>fixed asset net worth increase</t>
   </si>
   <si>
-    <t>Eg:buy new fixed asset</t>
-  </si>
-  <si>
-    <t>Eg:repair or upgrade fixed asset</t>
+    <t>Eg:buy new fixed asset, fixed asset has a new net worth</t>
+  </si>
+  <si>
+    <t>Eg:repair make the fixed asset increased</t>
+  </si>
+  <si>
+    <t>Eg:repair fixed asset, get a new net worth based on latest depreciation net worth and repairment</t>
+  </si>
+  <si>
+    <t>对模型理解有偏差导致编写测试时有所疑惑</t>
   </si>
   <si>
     <t>all fixed assets total worth changes</t>
   </si>
   <si>
-    <t>liquidation</t>
-  </si>
-  <si>
-    <t>Eg:liquidation from net worth changes form</t>
+    <t>net worth changes check</t>
+  </si>
+  <si>
+    <t>Eg:networth changes must have a corresponding a net worth</t>
+  </si>
+  <si>
+    <t>Eg:net worth changes size must be equal with net worth size</t>
+  </si>
+  <si>
+    <t>generate net worth change</t>
+  </si>
+  <si>
+    <t>Eg generate a new net worth change for a net worth</t>
+  </si>
+  <si>
+    <r>
+      <t>断言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>primary type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>时需要注意类型的严格一致性，如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>，书写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>的差别是重大的</t>
+    </r>
+  </si>
+  <si>
+    <t>Eg get an existing net worth change for a net worth without correspondding networth change</t>
+  </si>
+  <si>
+    <t>policy preparation</t>
+  </si>
+  <si>
+    <t>should create a policy</t>
+  </si>
+  <si>
+    <r>
+      <t>遇到断言问题，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CoreMatcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>endsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>方法无法正确引入；创建相关资源类也消耗了一定的时间</t>
+    </r>
+  </si>
+  <si>
+    <t>should get a policy</t>
+  </si>
+  <si>
+    <r>
+      <t>rest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>资源路径设置觉得存在莫名的问题</t>
+    </r>
+  </si>
+  <si>
+    <t>net worth</t>
+  </si>
+  <si>
+    <t>should buy a new fixed asset with a policy</t>
+  </si>
+  <si>
+    <t>should generate a new net worth after a depreciation through a net worth accounting request</t>
+  </si>
+  <si>
+    <t>should generate a new net worth after repairment through a net worth accounting request</t>
+  </si>
+  <si>
+    <t>net worth changes</t>
+  </si>
+  <si>
+    <t>should generate networth change base net worth</t>
   </si>
 </sst>
 </file>
@@ -51,11 +267,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -71,6 +288,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +337,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,78 +379,166 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.045918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>15</v>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="78.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>15</v>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -224,4 +550,96 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="50.3163265306123"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/fixed asset/fixed asset.xlsx
+++ b/fixed asset/fixed asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>core test</t>
   </si>
@@ -245,12 +245,120 @@
     <t>net worth</t>
   </si>
   <si>
-    <t>should buy a new fixed asset with a policy</t>
+    <t>should buy a new fixed asset </t>
+  </si>
+  <si>
+    <t>测试没有提前想清楚，多做无用功</t>
+  </si>
+  <si>
+    <t>should buy a new fixed asset and be redirect to net accounting request</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符串拼写错误导致问题不易被发现；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>对字符处理的没有考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>中的空格问题</t>
+    </r>
+  </si>
+  <si>
+    <t>should be redirect to net accounting request after depreciation</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>：资源路径拼写错误；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>：未正确将返回值写入</t>
+    </r>
   </si>
   <si>
     <t>should generate a new net worth after a depreciation through a net worth accounting request</t>
   </si>
   <si>
+    <r>
+      <t>补充持久化层抽象，持久化层组织有些混乱，根本上是对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>模型理解不够</t>
+    </r>
+  </si>
+  <si>
     <t>should generate a new net worth after repairment through a net worth accounting request</t>
   </si>
   <si>
@@ -258,6 +366,70 @@
   </si>
   <si>
     <t>should generate networth change base net worth</t>
+  </si>
+  <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>policy mapper</t>
+  </si>
+  <si>
+    <t>eg: get policy by id</t>
+  </si>
+  <si>
+    <t>eg: persist policy</t>
+  </si>
+  <si>
+    <t>fixed asset mapper</t>
+  </si>
+  <si>
+    <t>eg: persist fixed asset</t>
+  </si>
+  <si>
+    <t>初始化数据库</t>
+  </si>
+  <si>
+    <t>eg:query fixed asset</t>
+  </si>
+  <si>
+    <r>
+      <t>数据库对象向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>对象转换存在问题，过度依赖构造函数</t>
+    </r>
+  </si>
+  <si>
+    <t>depreciation mapper</t>
+  </si>
+  <si>
+    <t>eg:create a new depreciation </t>
+  </si>
+  <si>
+    <t>eg: get an existing depreciation</t>
+  </si>
+  <si>
+    <t>net worth mapper</t>
+  </si>
+  <si>
+    <t>eg: persist net worth</t>
+  </si>
+  <si>
+    <t>eg: get a net worth</t>
   </si>
 </sst>
 </file>
@@ -557,17 +729,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="50.3163265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="45.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,25 +786,187 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
